--- a/biology/Zoologie/Biswamoyopterus_laoensis/Biswamoyopterus_laoensis.xlsx
+++ b/biology/Zoologie/Biswamoyopterus_laoensis/Biswamoyopterus_laoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Biswamoyopterus laoensis est une espèce d'écureuils volants de la famille des Sciuridae et endémique du Laos[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biswamoyopterus laoensis est une espèce d'écureuils volants de la famille des Sciuridae et endémique du Laos.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Biswamoyopterus laoensis a été décrite en 2013 par Daosavanh Sanamxay (d), Bounsavane Douangboubpha (d), Sara Bumrungsri (d), Sysouphanh Xayavong (d), Vilakhan Xayaphet (d), Chutamas Satasook (d) et Paul J. J. Bates (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Biswamoyopterus laoensis a été décrite en 2013 par Daosavanh Sanamxay (d), Bounsavane Douangboubpha (d), Sara Bumrungsri (d), Sysouphanh Xayavong (d), Vilakhan Xayaphet (d), Chutamas Satasook (d) et Paul J. J. Bates (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Biswamoyopterus laoensis n'est pour l'instant connu que de la province de Borikhamxay au Laos[2] et se rencontre en forêt à une altitude comprise entre 160 et 1 600 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biswamoyopterus laoensis n'est pour l'instant connu que de la province de Borikhamxay au Laos et se rencontre en forêt à une altitude comprise entre 160 et 1 600 m.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Biswamoyopterus laoensis est un écureuil volant de grande taille pouvant mesurer 455 mm de la tête à la queue[2], cette dernière mesurant jusqu'à 620 mm[2]. Sa masse peut atteindre 1 800 g[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biswamoyopterus laoensis est un écureuil volant de grande taille pouvant mesurer 455 mm de la tête à la queue, cette dernière mesurant jusqu'à 620 mm. Sa masse peut atteindre 1 800 g.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, composée de lao et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte, dans la province de Borikhamxay au Laos[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composée de lao et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte, dans la province de Borikhamxay au Laos. 
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Daosavanh Sanamxay, Bounsavane Douangboubpha, Sara Bumrungsri, Sysouphanh Xayavong, Vilakhan Xayaphet, Chutamas Satasook et Paul J. J. Bates, « Rediscovery of Biswamoyopterus (Mammalia: Rodentia: Sciuridae: Pteromyini) in Asia, with the description of a new species from Lao PDR », Zootaxa, Magnolia Press (d), vol. 3686, no 4,‎ 15 juillet 2013, p. 471–481 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, PMID 26473234, DOI 10.11646/ZOOTAXA.3686.4.5)</t>
         </is>
